--- a/MyLOB.Mvc/EasyLOB-Templates/Security.xlsx
+++ b/MyLOB.Mvc/EasyLOB-Templates/Security.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\iMPX20\iMPX.Mvc\EasyLOB-Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\EasyLOB-2\iMPX-2\iMPX.Mvc\EasyLOB-Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Roles!$A$1:$A$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Roles by Activity'!$A$1:$C$125</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Roles by User'!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Users!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Users!$A$1:$D$41</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>UserName</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Report</t>
+  </si>
+  <si>
+    <t>Locked</t>
+  </si>
+  <si>
+    <t>Lock End Date</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -175,6 +181,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,7 +626,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -626,20 +635,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:D41"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
